--- a/biology/Zoologie/Heliconius_nattereri/Heliconius_nattereri.xlsx
+++ b/biology/Zoologie/Heliconius_nattereri/Heliconius_nattereri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Heliconius nattereri est une espèce de lépidoptères (papillons) de la famille des Nymphalidae, de la sous-famille des Heliconiinae et du genre Heliconius.
 </t>
@@ -511,11 +523,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Heliconius nattereri a été décrit par Cajetan Freiherr von Felder et Rudolf Felder en 1865[1].
-Nom vernaculaire
-Heliconius nattereri se nomme Natterer's Longwing en anglais.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heliconius nattereri a été décrit par Cajetan Freiherr von Felder et Rudolf Felder en 1865.
 </t>
         </is>
       </c>
@@ -541,10 +553,49 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heliconius nattereri se nomme Natterer's Longwing en anglais.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Heliconius_nattereri</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliconius_nattereri</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Heliconius nattereri est un grand papillon au corps fin et aux ailes antérieures allongées à apex arrondi, aux ailes de couleur noire orne mentées de blanc chez le mâle différemment chez la femelle qui présente une ressemblance (mimétisme Müllérien) avec Heliconius ethilla et Mechanitis polymnia.
 Le mâle présente un dessus de couleur noire orné de jaune pâle, aux ailes antérieures une bande partant de la base et une flaque séparant en partie l'apex du reste de l'aile alors que les ailes postérieures présentent une large bande jaune pâle partant du bord interne près de la base vers l'apex.
@@ -553,73 +604,45 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Heliconius_nattereri</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Heliconius_nattereri</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plantes hôtes
-Les plantes hôtes de sa chenille sont des Tetrastylis et des Dilkea[2].
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont des Tetrastylis et des Dilkea.
 Sur les autres projets Wikimedia :
 Heliconius nattereri, sur Wikimedia CommonsHeliconius nattereri, sur Wikispecies
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Heliconius_nattereri</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Heliconius_nattereri</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Écologie et distribution</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Heliconius nattereri est présent au Brésil[1].
-Biotope
-Heliconius nattereri réside en forêt tropicale humide jusqu'à 1 300 m[2].
-</t>
-        </is>
-      </c>
-    </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
@@ -641,12 +664,84 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heliconius nattereri est présent au Brésil.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Heliconius_nattereri</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliconius_nattereri</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heliconius nattereri réside en forêt tropicale humide jusqu'à 1 300 m.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Heliconius_nattereri</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliconius_nattereri</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Protection</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Heliconius nattereri est noté CR (en grave danger) sur le Red Data Book[3].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heliconius nattereri est noté CR (en grave danger) sur le Red Data Book.
 </t>
         </is>
       </c>
